--- a/biology/Botanique/Griseliniaceae/Griseliniaceae.xlsx
+++ b/biology/Botanique/Griseliniaceae/Griseliniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Griseliniacées est une famille de plantes dicotylédones.
-En classification phylogénétique APG II (2003)[1] elle compte six ou sept espèces du genre Griselinia.
+En classification phylogénétique APG II (2003) elle compte six ou sept espèces du genre Griselinia.
 Ce sont des petits arbres ou des arbustes grimpants, parfois épiphytes, des régions tempérées de l'hémisphère sud, originaires de Nouvelle-Zélande et du sud de l'Amérique du Sud.
-En classification classique de Cronquist (1981)[2] cette famille n'existe pas; le genre Griselinia est inclus en famille Cornaceae.
+En classification classique de Cronquist (1981) cette famille n'existe pas; le genre Griselinia est inclus en famille Cornaceae.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre-type Griselinia nommé en mémoire de Fransesco Griselini (1717-1787), un botaniste italien[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre-type Griselinia nommé en mémoire de Fransesco Griselini (1717-1787), un botaniste italien.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 Jul 2010)[4], NCBI  (12 Jul 2010)[5] et DELTA Angio           (12 Jul 2010)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 Jul 2010), NCBI  (12 Jul 2010) et DELTA Angio           (12 Jul 2010) :
 genre Griselinia J.R.Forst. &amp; G.Forst.</t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (12 Jul 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 Jul 2010) :
 genre Griselinia
 Griselinia carlomunozii
 Griselinia jodinifolia
